--- a/data/trans_bre/P20B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 9,67</t>
+          <t>-39,74; 9,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 22,94</t>
+          <t>-29,88; 22,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,61; -7,81</t>
+          <t>-52,23; -6,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,78; -12,9</t>
+          <t>-53,08; -14,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-90,38; 89,73</t>
+          <t>-88,89; 119,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,49; 224,55</t>
+          <t>-70,04; 173,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6,69</t>
+          <t>-100,0; 12,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-93,0; -42,31</t>
+          <t>-91,7; -41,47</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 15,08</t>
+          <t>-31,64; 15,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 19,03</t>
+          <t>-17,56; 19,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 28,25</t>
+          <t>-20,21; 28,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 18,6</t>
+          <t>-28,84; 20,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,8; —</t>
+          <t>-87,54; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 481,23</t>
+          <t>-65,89; 518,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,22; 129,08</t>
+          <t>-62,45; 126,82</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 10,46</t>
+          <t>-46,76; 12,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 20,19</t>
+          <t>-24,58; 22,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 41,5</t>
+          <t>-27,51; 40,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 8,77</t>
+          <t>-42,11; 8,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-90,74; 67,81</t>
+          <t>-90,84; 69,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,36; 102,0</t>
+          <t>-63,63; 96,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 187,12</t>
+          <t>-59,28; 190,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-79,6; 20,74</t>
+          <t>-77,7; 26,5</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 11,76</t>
+          <t>-15,67; 13,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 1,79</t>
+          <t>-26,02; 2,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,93; -1,61</t>
+          <t>-37,64; -4,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 5,46</t>
+          <t>-21,05; 5,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 78,48</t>
+          <t>-58,0; 98,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,42; 13,26</t>
+          <t>-67,93; 11,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,4; -0,72</t>
+          <t>-75,04; -12,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 32,79</t>
+          <t>-64,3; 33,19</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 17,16</t>
+          <t>-35,82; 17,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 18,8</t>
+          <t>-21,34; 18,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 25,9</t>
+          <t>-21,76; 26,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 20,53</t>
+          <t>-18,4; 17,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-71,49; 155,68</t>
+          <t>-72,01; 215,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 86,53</t>
+          <t>-43,86; 82,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 117,48</t>
+          <t>-42,37; 127,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-42,22; 99,7</t>
+          <t>-42,23; 85,16</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,82; 30,06</t>
+          <t>-75,21; 30,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,11; 17,39</t>
+          <t>-55,75; 15,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 26,68</t>
+          <t>-32,01; 25,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,21; 37,16</t>
+          <t>-54,03; 34,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,95; 140,06</t>
+          <t>-75,39; 144,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 2,85</t>
+          <t>-14,98; 1,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 2,65</t>
+          <t>-13,93; 2,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,67; -0,44</t>
+          <t>-19,16; 0,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -1,89</t>
+          <t>-18,3; -1,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 14,05</t>
+          <t>-47,18; 10,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 10,48</t>
+          <t>-39,26; 10,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-46,47; -0,52</t>
+          <t>-47,92; 0,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-48,02; -6,46</t>
+          <t>-48,1; -4,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
